--- a/data/trans_bre/P29_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P29_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,12 +525,16 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no consume diariamente raciones de verdura u hortalizas al día</t>
+          <t>Población que no consume diariamente raciones de verdura u hortalizas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-15,87</t>
+          <t>-14,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,35</t>
+          <t>-5,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,01</t>
+          <t>10,88</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-41,29%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,98%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-19,61%</t>
+          <t>-37,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-12,19%</t>
+          <t>1,14%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-15,83%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>46,23%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,88; -6,03</t>
+          <t>-30,78; -2,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 6,76</t>
+          <t>-8,44; 9,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 0,58</t>
+          <t>-14,4; 2,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,82; 2,99</t>
+          <t>-1,33; 24,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-58,45; -18,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,64; 23,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-36,19; 1,21</t>
+          <t>-62,53; -6,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-28,17; 6,21</t>
+          <t>-23,9; 37,26</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-33,88; 6,53</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-4,33; 160,88</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-10,69</t>
+          <t>-9,54</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-14,37</t>
+          <t>-12,57</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-12,54</t>
+          <t>-12,2</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,06</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-31,02%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-38,76%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-34,17%</t>
+          <t>-30,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-20,94%</t>
+          <t>-36,36%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-32,78%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-2,42%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,72; -4,76</t>
+          <t>-16,94; -2,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,61; -8,74</t>
+          <t>-18,59; -6,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,41; -7,07</t>
+          <t>-18,63; -5,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,92; -3,88</t>
+          <t>-7,01; 6,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,42; -14,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,91; -26,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-45,56; -20,99</t>
+          <t>-48,46; -9,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,26; -8,47</t>
+          <t>-48,91; -20,52</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-44,89; -17,63</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-22,17; 27,42</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-11,99</t>
+          <t>-13,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,9</t>
+          <t>-7,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,7</t>
+          <t>-6,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-17,02</t>
+          <t>-17,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-48,58%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-26,2%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-24,86%</t>
+          <t>-54,19%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-41,54%</t>
+          <t>-31,07%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-25,77%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-58,25%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,44; -6,46</t>
+          <t>-20,43; -7,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,07; -0,87</t>
+          <t>-12,56; -1,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,05; -1,14</t>
+          <t>-12,66; -1,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,99; -7,39</t>
+          <t>-24,13; -10,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-62,66; -30,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-42,52; -2,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-40,33; -4,1</t>
+          <t>-69,22; -32,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-56,86; -19,74</t>
+          <t>-49,03; -7,37</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-41,93; -6,14</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-69,81; -40,4</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-11,92</t>
+          <t>-12,57</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,44</t>
+          <t>-10,08</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,35</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,32</t>
+          <t>-8,04</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-37,17%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-26,49%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-27,64%</t>
+          <t>-34,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-21,97%</t>
+          <t>-27,07%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-25,78%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,12; -7,74</t>
+          <t>-18,84; -6,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,69; -4,54</t>
+          <t>-17,89; -1,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,07; -5,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,79; -6,01</t>
+          <t>-15,65; -0,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-46,47; -26,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,79; -15,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-36,68; -17,64</t>
+          <t>-47,31; -18,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,92; -13,59</t>
+          <t>-42,72; -5,4</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-43,5; -1,96</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-12,26</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-8,69</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-8,99</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-5,08</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-37,42%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-27,46%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-26,43%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-17,61%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-16,53; -8,54</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-12,23; -5,11</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-12,8; -5,11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-9,69; -0,49</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-46,23; -28,22</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-36,45; -17,75</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-35,36; -16,45</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-30,68; -1,88</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P29_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P29_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-14,28</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-5,96</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>10,88</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-37,95%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,14%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-15,83%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>46,23%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>-13.0205362947189</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.250096150086454</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-5.318391612978685</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>9.800431931481873</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>-0.3632934180442848</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.008321154528631346</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.1418127785269029</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.4196410544210222</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-30,78; -2,81</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,44; 9,3</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-14,4; 2,12</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,33; 24,03</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-62,53; -6,87</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-23,9; 37,26</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-33,88; 6,53</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-4,33; 160,88</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-27.47249797840493</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-8.483126468717009</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-13.51140280547008</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.080200291699837</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.6059950261000199</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2538817082639891</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.3178304630903928</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.07015568645579405</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-1.753552139835642</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>9.177560381024582</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.874854519772364</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>23.20972420005385</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>-0.0321689935575826</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.3776541561173308</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.08698759310183604</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.56682523778804</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-9,54</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-12,57</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-12,2</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,68</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-30,67%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-36,36%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-32,78%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-2,42%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-16,94; -2,58</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-18,59; -6,56</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-18,63; -5,96</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,01; 6,51</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-48,46; -9,09</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-48,91; -20,52</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-44,89; -17,63</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-22,17; 27,42</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>-9.966508405379901</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-11.6378272055215</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-12.6627555388541</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.1954476168699315</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>-0.3174810403008186</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.3412420104078353</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.3385701998892988</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.006971546516542139</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-13,64</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-7,09</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-6,94</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-17,17</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-54,19%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-31,07%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-25,77%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-58,25%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-17.57199733471685</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-17.89359043832332</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-19.24002035944015</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-6.434517629647561</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.4934307424546859</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4771140021819879</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.4583726950973382</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2057566419894625</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-20,43; -7,28</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-12,56; -1,42</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-12,66; -1,54</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-24,13; -10,15</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-69,22; -32,95</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-49,03; -7,37</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-41,93; -6,14</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-69,81; -40,4</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-3.085175548105177</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-5.833558284876909</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-6.680379588247565</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.466997405238485</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>-0.1091064247880837</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.1864866908454697</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>-0.1925216094528442</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.3170929844424966</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-12,57</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-10,08</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-8,04</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-34,52%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-27,07%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-25,78%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-12.60365118807094</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-6.879209407436596</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-6.903018317078474</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-16.15506156579285</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.5262957039022478</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.3062506460648362</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.2560250636547811</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.5656055209855998</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-18,84; -6,18</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-17,89; -1,84</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-15,65; -0,95</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-47,31; -18,85</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-42,72; -5,4</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-43,5; -1,96</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-19.33846054507267</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-12.35986186836533</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-12.62581461702079</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-23.07396698381321</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.6868423160690799</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4867643358721468</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.4155750922475452</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.6881919694538243</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-6.175338603486726</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-1.384183295738418</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-1.468405305698775</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-9.097266747763443</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>-0.3072499751035676</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>-0.06802880506868438</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>-0.05808585090033015</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>-0.383849795601286</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-12,26</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-8,69</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-8,99</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-5,08</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-37,42%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-27,46%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-26,43%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-17,61%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-16,53; -8,54</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-12,23; -5,11</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-12,8; -5,11</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-9,69; -0,49</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-46,23; -28,22</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-36,45; -17,75</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-35,36; -16,45</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-30,68; -1,88</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>-11.2399018229776</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-7.513481644176171</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-9.043987184840374</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-3.413911979495904</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>-0.3823653717318433</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.2546445497911879</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.2648518832948438</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.1248947434803189</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-16.3149648097762</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-11.14360478122368</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-12.88646715274987</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-8.382854214784338</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.49872360305057</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3518294903922304</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.3529388620328708</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.2759947273004924</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-6.593042929100839</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-3.625262760969882</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-5.230557177791881</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.788184421885491</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>-0.2551021817443522</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.1314868387745964</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>-0.1621177911058983</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.07326734309686475</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
